--- a/data/trans_dic/P73-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P73-Habitat-trans_dic.xlsx
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>58,7; 76,66</t>
+          <t>59,31; 76,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>47,24; 65,94</t>
+          <t>47,77; 66,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>54,8; 72,17</t>
+          <t>54,58; 73,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>62,46; 77,77</t>
+          <t>61,59; 76,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,01; 77,59</t>
+          <t>58,1; 76,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>56,42; 73,7</t>
+          <t>56,11; 73,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>62,8; 74,45</t>
+          <t>62,78; 74,65</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>55,79; 69,67</t>
+          <t>56,23; 69,52</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>58,34; 70,55</t>
+          <t>58,68; 71,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>61,09; 69,23</t>
+          <t>60,79; 68,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>63,6; 71,09</t>
+          <t>63,5; 71,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>59,52; 67,8</t>
+          <t>59,39; 67,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>58,97; 66,76</t>
+          <t>58,82; 66,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>62,28; 70,74</t>
+          <t>62,39; 70,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>58,67; 67,4</t>
+          <t>58,9; 66,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>61,05; 66,78</t>
+          <t>61,3; 67,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>64,07; 69,97</t>
+          <t>64,16; 69,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>60,55; 66,31</t>
+          <t>60,55; 66,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,29; 69,7</t>
+          <t>63,19; 69,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>62,71; 68,83</t>
+          <t>62,31; 68,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>59,84; 65,89</t>
+          <t>59,71; 66,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>63,1; 69,17</t>
+          <t>62,96; 69,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,4; 69,51</t>
+          <t>63,6; 69,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>63,3; 69,17</t>
+          <t>63,29; 69,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63,96; 68,42</t>
+          <t>64,09; 68,7</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>64,02; 68,4</t>
+          <t>64,05; 68,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>62,48; 66,69</t>
+          <t>62,61; 66,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>66,16; 73,23</t>
+          <t>65,83; 73,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>62,63; 69,76</t>
+          <t>62,5; 69,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>60,35; 67,59</t>
+          <t>60,75; 67,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>60,52; 67,75</t>
+          <t>60,56; 67,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>62,82; 69,82</t>
+          <t>62,36; 69,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>56,62; 63,83</t>
+          <t>56,45; 63,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>64,25; 69,16</t>
+          <t>64,27; 69,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>63,68; 68,84</t>
+          <t>63,48; 68,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>59,45; 64,46</t>
+          <t>59,76; 64,91</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,02; 64,12</t>
+          <t>57,89; 64,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>59,23; 65,58</t>
+          <t>59,42; 65,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>60,71; 66,94</t>
+          <t>60,71; 66,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>53,7; 59,94</t>
+          <t>53,85; 60,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>57,88; 63,99</t>
+          <t>57,76; 63,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>49,4; 55,54</t>
+          <t>49,35; 55,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>56,92; 61,34</t>
+          <t>56,71; 61,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>59,58; 64,16</t>
+          <t>59,61; 63,97</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>55,3; 60,02</t>
+          <t>55,43; 60,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>63,7; 67,02</t>
+          <t>63,83; 67,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>63,38; 66,75</t>
+          <t>63,36; 66,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>61,95; 65,16</t>
+          <t>61,88; 65,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>61,01; 64,43</t>
+          <t>61,02; 64,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>63,06; 66,49</t>
+          <t>63,21; 66,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>58,8; 62,05</t>
+          <t>58,62; 62,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>62,75; 65,19</t>
+          <t>62,81; 65,14</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>63,74; 66,11</t>
+          <t>63,68; 66,19</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>60,7; 63,01</t>
+          <t>60,7; 63,15</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P73-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P73-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>59,31; 76,5</t>
+          <t>58,65; 76,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>47,77; 66,0</t>
+          <t>46,3; 65,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>54,58; 73,05</t>
+          <t>55,89; 72,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>61,59; 76,9</t>
+          <t>60,3; 76,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>58,1; 76,97</t>
+          <t>59,0; 78,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>56,11; 73,26</t>
+          <t>56,71; 73,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>62,78; 74,65</t>
+          <t>62,82; 75,03</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>56,23; 69,52</t>
+          <t>55,65; 68,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>58,68; 71,28</t>
+          <t>58,25; 70,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>60,79; 68,99</t>
+          <t>60,98; 68,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>63,5; 71,3</t>
+          <t>63,37; 71,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>59,39; 67,24</t>
+          <t>59,43; 67,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>58,82; 66,69</t>
+          <t>59,1; 66,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>62,39; 70,66</t>
+          <t>61,81; 70,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>58,9; 66,99</t>
+          <t>59,3; 67,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>61,3; 67,06</t>
+          <t>61,23; 66,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>64,16; 69,58</t>
+          <t>63,78; 69,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>60,55; 66,06</t>
+          <t>60,36; 66,2</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,19; 69,65</t>
+          <t>62,92; 69,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>62,31; 68,65</t>
+          <t>62,55; 68,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>59,71; 66,17</t>
+          <t>59,62; 65,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>62,96; 69,33</t>
+          <t>62,97; 69,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,6; 69,73</t>
+          <t>63,62; 69,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>63,29; 69,13</t>
+          <t>63,41; 69,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>64,09; 68,7</t>
+          <t>64,19; 68,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>64,05; 68,23</t>
+          <t>64,19; 68,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>62,61; 66,79</t>
+          <t>62,34; 66,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>65,83; 73,38</t>
+          <t>66,06; 73,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>62,5; 69,72</t>
+          <t>62,4; 69,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>60,75; 67,57</t>
+          <t>60,25; 67,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>60,56; 67,56</t>
+          <t>60,53; 67,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>62,36; 69,63</t>
+          <t>62,6; 69,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>56,45; 63,79</t>
+          <t>56,75; 63,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>64,27; 69,49</t>
+          <t>64,4; 69,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>63,48; 68,79</t>
+          <t>63,45; 68,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>59,76; 64,91</t>
+          <t>59,65; 64,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>57,89; 64,23</t>
+          <t>57,63; 63,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>59,42; 65,91</t>
+          <t>59,14; 65,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>60,71; 66,52</t>
+          <t>60,29; 66,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>53,85; 60,02</t>
+          <t>53,78; 59,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>57,76; 63,83</t>
+          <t>57,79; 63,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>49,35; 55,57</t>
+          <t>49,23; 56,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>56,71; 61,06</t>
+          <t>56,79; 61,19</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>59,61; 63,97</t>
+          <t>59,65; 64,07</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>55,43; 60,0</t>
+          <t>55,47; 59,96</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>63,83; 67,12</t>
+          <t>63,82; 67,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>63,36; 66,66</t>
+          <t>63,23; 66,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>61,88; 65,35</t>
+          <t>61,8; 65,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>61,02; 64,11</t>
+          <t>61,03; 64,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>63,21; 66,5</t>
+          <t>63,18; 66,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>58,62; 62,02</t>
+          <t>58,84; 62,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>62,81; 65,14</t>
+          <t>62,73; 65,19</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>63,68; 66,19</t>
+          <t>63,83; 66,16</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>60,7; 63,15</t>
+          <t>60,66; 63,01</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P73-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P73-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -671,47 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,81%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>69,81%</t>
+          <t>68,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>68,86%</t>
+          <t>65,72%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>65,72%</t>
+          <t>68,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,81%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>68,91%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>62,81%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
           <t>64,95%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>58,65; 76,68</t>
+          <t>58,7; 76,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>46,3; 65,43</t>
+          <t>47,24; 65,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55,89; 72,92</t>
+          <t>54,8; 72,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>62,46; 77,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>60,3; 76,82</t>
+          <t>59,01; 77,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,0; 78,3</t>
+          <t>56,42; 73,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>56,71; 73,77</t>
+          <t>62,8; 74,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>55,79; 69,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>62,82; 75,03</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>55,65; 68,79</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>58,25; 70,79</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,53</t>
+          <t>58,34; 70,55</t>
         </is>
       </c>
     </row>
@@ -811,47 +757,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>62,88%</t>
+          <t>66,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>66,46%</t>
+          <t>63,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>63,25%</t>
+          <t>64,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,93%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>64,06%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>66,93%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
           <t>63,42%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -864,62 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>60,98; 68,82</t>
+          <t>61,09; 69,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>63,37; 71,2</t>
+          <t>63,6; 71,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>59,43; 67,78</t>
+          <t>59,52; 67,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>58,97; 66,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>59,1; 66,74</t>
+          <t>62,28; 70,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>61,81; 70,21</t>
+          <t>58,67; 67,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>59,3; 67,58</t>
+          <t>61,05; 66,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>64,07; 69,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>61,23; 66,67</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>63,78; 69,62</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>60,36; 66,2</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,12</t>
+          <t>60,55; 66,31</t>
         </is>
       </c>
     </row>
@@ -951,47 +867,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>66,61%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>66,28%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>66,35%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>66,61%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>66,28%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,2%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>66,35%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>66,2%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
           <t>64,61%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>62,92; 69,09</t>
+          <t>63,29; 69,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>62,55; 68,85</t>
+          <t>62,71; 68,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>59,62; 65,9</t>
+          <t>59,84; 65,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>63,1; 69,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>62,97; 69,38</t>
+          <t>63,4; 69,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,62; 69,74</t>
+          <t>63,3; 69,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>63,41; 69,15</t>
+          <t>63,96; 68,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>64,02; 68,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>64,19; 68,48</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>64,19; 68,49</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>62,34; 66,64</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,08</t>
+          <t>62,48; 66,69</t>
         </is>
       </c>
     </row>
@@ -1091,47 +977,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>64,12%</t>
+          <t>66,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>66,07%</t>
+          <t>60,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>60,34%</t>
+          <t>66,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,13%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>66,9%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>66,13%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
           <t>62,13%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>66,06; 73,25</t>
+          <t>66,16; 73,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>62,4; 69,67</t>
+          <t>62,63; 69,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>60,25; 67,75</t>
+          <t>60,35; 67,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>60,52; 67,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>60,53; 67,67</t>
+          <t>62,82; 69,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>62,6; 69,65</t>
+          <t>56,62; 63,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>56,75; 63,96</t>
+          <t>64,25; 69,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>63,68; 68,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>64,4; 69,44</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>63,45; 68,47</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>59,65; 64,66</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,11</t>
+          <t>59,45; 64,46</t>
         </is>
       </c>
     </row>
@@ -1231,47 +1087,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,05%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>57,05%</t>
+          <t>61,02%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>61,02%</t>
+          <t>52,43%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>52,43%</t>
+          <t>58,99%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,81%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>58,99%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>61,81%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
           <t>57,77%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>57,63; 63,96</t>
+          <t>58,02; 64,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>59,14; 65,62</t>
+          <t>59,23; 65,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>60,29; 66,77</t>
+          <t>60,71; 66,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>53,7; 59,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>53,78; 59,93</t>
+          <t>57,88; 63,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>57,79; 63,99</t>
+          <t>49,4; 55,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>49,23; 56,27</t>
+          <t>56,92; 61,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>59,58; 64,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>56,79; 61,19</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>59,65; 64,07</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>55,47; 59,96</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,07</t>
+          <t>55,3; 60,02</t>
         </is>
       </c>
     </row>
@@ -1371,47 +1197,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,57%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>62,57%</t>
+          <t>64,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>64,89%</t>
+          <t>60,39%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>60,39%</t>
+          <t>63,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,94%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>63,96%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>64,94%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
           <t>61,93%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>63,82; 67,1</t>
+          <t>63,7; 67,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>63,23; 66,56</t>
+          <t>63,38; 66,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>61,8; 65,11</t>
+          <t>61,95; 65,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>61,01; 64,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>61,03; 64,22</t>
+          <t>63,06; 66,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>63,18; 66,4</t>
+          <t>58,8; 62,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>58,84; 62,26</t>
+          <t>62,75; 65,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>63,74; 66,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>62,73; 65,19</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>63,83; 66,16</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>60,66; 63,01</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,02</t>
+          <t>60,7; 63,01</t>
         </is>
       </c>
     </row>
@@ -1492,15 +1288,15 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P73-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P73-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>68,02%</t>
+          <t>65,7%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>56,9%</t>
+          <t>65,71%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>64,2%</t>
+          <t>63,7%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>69,81%</t>
+          <t>64,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>68,86%</t>
+          <t>66,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>65,72%</t>
+          <t>63,66%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>68,91%</t>
+          <t>64,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>62,81%</t>
+          <t>66,27%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>64,95%</t>
+          <t>63,68%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>58,7; 76,66</t>
+          <t>62,13; 69,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>47,24; 65,94</t>
+          <t>61,94; 68,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>54,8; 72,17</t>
+          <t>60,13; 67,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62,46; 77,77</t>
+          <t>60,31; 67,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>59,01; 77,59</t>
+          <t>63,34; 70,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>56,42; 73,7</t>
+          <t>59,79; 67,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>62,8; 74,45</t>
+          <t>62,34; 67,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>55,79; 69,67</t>
+          <t>63,79; 68,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>58,34; 70,55</t>
+          <t>61,09; 66,53</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>65,24%</t>
+          <t>66,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>67,4%</t>
+          <t>65,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>63,59%</t>
+          <t>62,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62,88%</t>
+          <t>66,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>66,46%</t>
+          <t>66,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>63,25%</t>
+          <t>66,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>64,06%</t>
+          <t>66,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>66,93%</t>
+          <t>66,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>63,42%</t>
+          <t>64,61%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>61,09; 69,23</t>
+          <t>63,29; 69,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>63,6; 71,09</t>
+          <t>62,71; 68,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>59,52; 67,8</t>
+          <t>59,84; 65,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>58,97; 66,76</t>
+          <t>63,1; 69,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>62,28; 70,74</t>
+          <t>63,4; 69,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,67; 67,4</t>
+          <t>63,3; 69,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>61,05; 66,78</t>
+          <t>63,96; 68,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>64,07; 69,97</t>
+          <t>64,02; 68,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>60,55; 66,31</t>
+          <t>62,48; 66,69</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>66,35%</t>
+          <t>69,7%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>65,79%</t>
+          <t>66,18%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>62,91%</t>
+          <t>63,97%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>66,35%</t>
+          <t>64,12%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>66,61%</t>
+          <t>66,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>66,28%</t>
+          <t>60,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>66,35%</t>
+          <t>66,9%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>66,2%</t>
+          <t>66,13%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>64,61%</t>
+          <t>62,13%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,29; 69,7</t>
+          <t>66,16; 73,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>62,71; 68,83</t>
+          <t>62,63; 69,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>59,84; 65,89</t>
+          <t>60,35; 67,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>63,1; 69,17</t>
+          <t>60,52; 67,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>63,4; 69,51</t>
+          <t>62,82; 69,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,3; 69,17</t>
+          <t>56,62; 63,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>63,96; 68,42</t>
+          <t>64,25; 69,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>64,02; 68,4</t>
+          <t>63,68; 68,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>62,48; 66,69</t>
+          <t>59,45; 64,46</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>69,7%</t>
+          <t>61,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>66,18%</t>
+          <t>62,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>63,97%</t>
+          <t>63,72%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>64,12%</t>
+          <t>57,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>66,07%</t>
+          <t>61,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>60,34%</t>
+          <t>52,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>66,9%</t>
+          <t>58,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>66,13%</t>
+          <t>61,81%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>62,13%</t>
+          <t>57,77%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>66,16; 73,23</t>
+          <t>58,02; 64,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>62,63; 69,76</t>
+          <t>59,23; 65,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>60,35; 67,59</t>
+          <t>60,71; 66,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>60,52; 67,75</t>
+          <t>53,7; 59,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>62,82; 69,82</t>
+          <t>57,88; 63,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>56,62; 63,83</t>
+          <t>49,4; 55,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>64,25; 69,16</t>
+          <t>56,92; 61,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>63,68; 68,84</t>
+          <t>59,58; 64,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>59,45; 64,46</t>
+          <t>55,3; 60,02</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>61,13%</t>
+          <t>65,41%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>62,68%</t>
+          <t>65,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>63,72%</t>
+          <t>63,53%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>57,05%</t>
+          <t>62,57%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>61,02%</t>
+          <t>64,89%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>52,43%</t>
+          <t>60,39%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>58,99%</t>
+          <t>63,96%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>61,81%</t>
+          <t>64,94%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>57,77%</t>
+          <t>61,93%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,02; 64,12</t>
+          <t>63,7; 67,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>59,23; 65,58</t>
+          <t>63,38; 66,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>60,71; 66,94</t>
+          <t>61,95; 65,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>53,7; 59,94</t>
+          <t>61,01; 64,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>57,88; 63,99</t>
+          <t>63,06; 66,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>49,4; 55,54</t>
+          <t>58,8; 62,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>56,92; 61,34</t>
+          <t>62,75; 65,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>59,58; 64,16</t>
+          <t>63,74; 66,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>55,3; 60,02</t>
+          <t>60,7; 63,01</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>65,41%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>65,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>63,53%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>62,57%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>64,89%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>60,39%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>63,96%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>64,94%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>61,93%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>63,7; 67,02</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>63,38; 66,75</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>61,95; 65,16</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>61,01; 64,43</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>63,06; 66,49</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>58,8; 62,05</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>62,75; 65,19</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>63,74; 66,11</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>60,7; 63,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P73-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P73-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>62,13; 69,2</t>
+          <t>62,23; 69,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>61,94; 68,97</t>
+          <t>62,28; 69,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60,13; 67,96</t>
+          <t>59,89; 67,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>60,31; 67,69</t>
+          <t>60,32; 67,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>63,34; 70,3</t>
+          <t>62,95; 70,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,79; 67,26</t>
+          <t>60,31; 67,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>62,34; 67,4</t>
+          <t>62,1; 67,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>63,79; 68,73</t>
+          <t>63,62; 68,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>61,09; 66,53</t>
+          <t>61,03; 66,4</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>63,29; 69,7</t>
+          <t>63,43; 69,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,71; 68,83</t>
+          <t>62,44; 68,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>59,84; 65,89</t>
+          <t>59,93; 65,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>63,1; 69,17</t>
+          <t>63,27; 69,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>63,4; 69,51</t>
+          <t>63,69; 69,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>63,3; 69,17</t>
+          <t>63,26; 69,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>63,96; 68,42</t>
+          <t>64,11; 68,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>64,02; 68,4</t>
+          <t>64,12; 68,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>62,48; 66,69</t>
+          <t>62,4; 66,67</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>66,16; 73,23</t>
+          <t>66,18; 73,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>62,63; 69,76</t>
+          <t>62,64; 69,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>60,35; 67,59</t>
+          <t>60,07; 67,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>60,52; 67,75</t>
+          <t>60,49; 67,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>62,82; 69,82</t>
+          <t>62,39; 69,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>56,62; 63,83</t>
+          <t>56,08; 63,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>64,25; 69,16</t>
+          <t>64,12; 69,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>63,68; 68,84</t>
+          <t>63,75; 68,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>59,45; 64,46</t>
+          <t>59,51; 64,26</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>58,02; 64,12</t>
+          <t>58,04; 63,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>59,23; 65,58</t>
+          <t>59,17; 65,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>60,71; 66,94</t>
+          <t>60,74; 66,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>53,7; 59,94</t>
+          <t>53,86; 60,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>57,88; 63,99</t>
+          <t>57,88; 64,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,4; 55,54</t>
+          <t>49,39; 55,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>56,92; 61,34</t>
+          <t>56,7; 61,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>59,58; 64,16</t>
+          <t>59,45; 63,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>55,3; 60,02</t>
+          <t>55,6; 60,11</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>63,7; 67,02</t>
+          <t>63,71; 67,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>63,38; 66,75</t>
+          <t>63,3; 66,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>61,95; 65,16</t>
+          <t>61,71; 65,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>61,01; 64,43</t>
+          <t>60,89; 64,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>63,06; 66,49</t>
+          <t>63,29; 66,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>58,8; 62,05</t>
+          <t>58,7; 61,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>62,75; 65,19</t>
+          <t>62,79; 65,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>63,74; 66,11</t>
+          <t>63,78; 66,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>60,7; 63,01</t>
+          <t>60,71; 63,07</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que están casados o viven en pareja</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>862</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>838</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>455959</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>457636</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>429834</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>440628</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>460110</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>428355</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>896587</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>917747</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>858189</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>431900; 478913</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>433787; 483046</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>404109; 453018</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>415228; 467188</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>433336; 484383</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>405817; 454525</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>858484; 928172</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>881034; 951925</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>822409; 894876</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1191</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1231</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>638155</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>668953</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>641913</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>642550</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>686872</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>691217</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1280705</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1355825</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1333130</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>610051; 666674</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>634943; 700272</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>611506; 671709</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>612748; 672812</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>656814; 716128</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>659700; 721570</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1237441; 1323661</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1313294; 1397177</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1287438; 1375546</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>913</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>472903</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>500806</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>485895</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>438509</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>513483</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>473699</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>911412</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1014289</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>959594</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>449040; 497877</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>473980; 529574</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>456245; 512811</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>413683; 464292</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>484859; 542167</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>440250; 501036</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>873532; 945227</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>977818; 1054969</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>919199; 992511</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1176</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1102</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>575440</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>592346</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>596709</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>592570</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>637144</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>546259</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1168010</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1229490</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1142968</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>546321; 601780</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>559125; 621174</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>568871; 622804</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>559434; 625025</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>604300; 668810</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>514614; 578388</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1122559; 1211007</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1182498; 1269911</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1099970; 1189233</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2058</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2043</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2053</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2115</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4149</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4173</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4067</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2142457</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2219741</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2154352</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2114257</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2297610</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2139529</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4256715</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4517351</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4293881</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2086954; 2196751</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2161804; 2275656</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2092814; 2210377</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2057600; 2170402</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2240852; 2357472</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2079736; 2195291</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4178497; 4333967</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4436736; 4598680</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4209717; 4373419</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>